--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,41 @@
         <v>251600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>597200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43008,6 +43008,41 @@
         <v>597200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1262700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43043,6 +43043,41 @@
         <v>1262700</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>3387100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43078,6 +43078,41 @@
         <v>3387100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>551300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43113,6 +43113,41 @@
         <v>551300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>587600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43148,6 +43148,41 @@
         <v>587600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>398300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43183,6 +43183,41 @@
         <v>398300</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>3333600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,41 @@
         <v>3333600</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>525300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,41 @@
         <v>525300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1275300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,41 @@
         <v>1275300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1704300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43323,6 +43323,41 @@
         <v>1704300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>2793300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,41 @@
         <v>2793300</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1493600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43393,6 +43393,76 @@
         <v>1493600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1428300</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>4546900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43463,6 +43463,76 @@
         <v>4546900</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1591100</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1890200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43533,6 +43533,41 @@
         <v>1890200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1602200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43568,6 +43568,41 @@
         <v>1602200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1623900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43603,6 +43603,41 @@
         <v>1623900</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>486400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43638,6 +43638,41 @@
         <v>486400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>20748100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,76 @@
         <v>20748100</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>11785500</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1360200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,41 @@
         <v>1360200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1239600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         <v>1239600</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>5623400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2623"/>
+  <dimension ref="A1:I2624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92183,6 +92183,41 @@
         <v>5623400</v>
       </c>
     </row>
+    <row r="2624">
+      <c r="A2624" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2624" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2624" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D2624" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E2624" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2624" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2624" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2624" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2624" t="n">
+        <v>3972400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2624"/>
+  <dimension ref="A1:I2625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92218,6 +92218,41 @@
         <v>3972400</v>
       </c>
     </row>
+    <row r="2625">
+      <c r="A2625" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2625" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2625" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D2625" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E2625" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2625" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2625" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2625" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2625" t="n">
+        <v>902100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2625"/>
+  <dimension ref="A1:I2626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92253,6 +92253,41 @@
         <v>902100</v>
       </c>
     </row>
+    <row r="2626">
+      <c r="A2626" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2626" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2626" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D2626" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E2626" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2626" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2626" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2626" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2626" t="n">
+        <v>1067200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2626"/>
+  <dimension ref="A1:I2627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92288,6 +92288,41 @@
         <v>1067200</v>
       </c>
     </row>
+    <row r="2627">
+      <c r="A2627" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2627" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2627" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D2627" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E2627" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2627" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2627" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2627" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2627" t="n">
+        <v>11854400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2627"/>
+  <dimension ref="A1:I2628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92323,6 +92323,41 @@
         <v>11854400</v>
       </c>
     </row>
+    <row r="2628">
+      <c r="A2628" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2628" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2628" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D2628" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E2628" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2628" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2628" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2628" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2628" t="n">
+        <v>7003800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2628"/>
+  <dimension ref="A1:I2629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92358,6 +92358,41 @@
         <v>7003800</v>
       </c>
     </row>
+    <row r="2629">
+      <c r="A2629" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2629" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2629" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D2629" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E2629" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2629" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2629" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2629" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2629" t="n">
+        <v>3597500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2629"/>
+  <dimension ref="A1:I2630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92393,6 +92393,41 @@
         <v>3597500</v>
       </c>
     </row>
+    <row r="2630">
+      <c r="A2630" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2630" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2630" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D2630" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E2630" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2630" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2630" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2630" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2630" t="n">
+        <v>1172700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2630"/>
+  <dimension ref="A1:I2631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92428,6 +92428,41 @@
         <v>1172700</v>
       </c>
     </row>
+    <row r="2631">
+      <c r="A2631" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2631" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2631" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D2631" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E2631" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2631" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2631" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2631" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2631" t="n">
+        <v>5906100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2631"/>
+  <dimension ref="A1:I2632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92463,6 +92463,41 @@
         <v>5906100</v>
       </c>
     </row>
+    <row r="2632">
+      <c r="A2632" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2632" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2632" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D2632" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E2632" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2632" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2632" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2632" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2632" t="n">
+        <v>3973200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2632"/>
+  <dimension ref="A1:I2633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92498,6 +92498,41 @@
         <v>3973200</v>
       </c>
     </row>
+    <row r="2633">
+      <c r="A2633" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2633" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2633" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D2633" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E2633" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2633" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2633" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2633" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2633" t="n">
+        <v>3103600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2633"/>
+  <dimension ref="A1:I2634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92533,6 +92533,41 @@
         <v>3103600</v>
       </c>
     </row>
+    <row r="2634">
+      <c r="A2634" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2634" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2634" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D2634" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E2634" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2634" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2634" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2634" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2634" t="n">
+        <v>5560000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2634"/>
+  <dimension ref="A1:I2635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92568,6 +92568,41 @@
         <v>5560000</v>
       </c>
     </row>
+    <row r="2635">
+      <c r="A2635" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2635" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2635" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D2635" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E2635" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2635" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2635" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2635" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2635" t="n">
+        <v>2689500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2635"/>
+  <dimension ref="A1:I2636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92603,6 +92603,41 @@
         <v>2689500</v>
       </c>
     </row>
+    <row r="2636">
+      <c r="A2636" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2636" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2636" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D2636" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E2636" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2636" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2636" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2636" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2636" t="n">
+        <v>2591700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2636"/>
+  <dimension ref="A1:I2637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92638,6 +92638,41 @@
         <v>2591700</v>
       </c>
     </row>
+    <row r="2637">
+      <c r="A2637" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2637" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2637" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D2637" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E2637" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2637" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2637" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2637" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2637" t="n">
+        <v>22641600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5932.xlsx
+++ b/data/5932.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2637"/>
+  <dimension ref="A1:I2638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92673,6 +92673,41 @@
         <v>22641600</v>
       </c>
     </row>
+    <row r="2638">
+      <c r="A2638" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2638" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2638" t="inlineStr">
+        <is>
+          <t>5932</t>
+        </is>
+      </c>
+      <c r="D2638" t="inlineStr">
+        <is>
+          <t>BPURI</t>
+        </is>
+      </c>
+      <c r="E2638" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2638" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2638" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2638" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2638" t="n">
+        <v>642200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
